--- a/geopoint_map.xlsx
+++ b/geopoint_map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10708"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrissyhroberts/Dropbox/SHARED_FOLDERS/ODK/Example Forms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icrucrob/Documents/GitHub/ODK_Geofencing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2C8EBD-564E-B445-8E7A-4F17CD708E1B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43495855-7950-284D-AC3F-C2520ECE4DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13940" yWindow="1240" windowWidth="33600" windowHeight="19720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>type</t>
   </si>
@@ -35,24 +35,9 @@
     <t>name</t>
   </si>
   <si>
-    <t>hint</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>starttime</t>
-  </si>
-  <si>
-    <t>label::English</t>
-  </si>
-  <si>
     <t>geopoint</t>
   </si>
   <si>
-    <t>find.location</t>
-  </si>
-  <si>
     <t xml:space="preserve">Enter a geopoint on the map (use </t>
   </si>
   <si>
@@ -66,13 +51,61 @@
   </si>
   <si>
     <t>list name</t>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>targetLat</t>
+  </si>
+  <si>
+    <t>targetLong</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>key_note</t>
+  </si>
+  <si>
+    <t>round(selected-at(${geopoint},0),2)</t>
+  </si>
+  <si>
+    <t>round(selected-at(${geopoint},1),2)</t>
+  </si>
+  <si>
+    <t>GPS : ${key}</t>
+  </si>
+  <si>
+    <t>geofence</t>
+  </si>
+  <si>
+    <t>pulldata('geofence.data', 'area', 'key', ${key})</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>geofence_report_detail</t>
+  </si>
+  <si>
+    <t>polygon : ${geofence}</t>
+  </si>
+  <si>
+    <t>concat(${targetLong},'|',${targetLat})</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -105,13 +138,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -268,9 +324,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="143">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -752,11 +814,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -768,7 +830,7 @@
     <col min="5" max="5" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -776,38 +838,100 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
+    <row r="7" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -823,7 +947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -835,13 +959,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/geopoint_map.xlsx
+++ b/geopoint_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icrucrob/Documents/GitHub/ODK_Geofencing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43495855-7950-284D-AC3F-C2520ECE4DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EFCF6E-DEE9-8543-BAA6-5C8483BA3CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13940" yWindow="1240" windowWidth="33600" windowHeight="19720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19180" yWindow="2460" windowWidth="33600" windowHeight="19720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>type</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>pulldata('geofence.data', 'area', 'key', ${key})</t>
-  </si>
-  <si>
-    <t>constraint</t>
   </si>
   <si>
     <t>geofence_report_detail</t>
@@ -105,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -132,27 +129,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF404040"/>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Arial"/>
+      <sz val="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -165,7 +156,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,13 +315,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -814,123 +813,225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.33203125" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="62" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="47.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/geopoint_map.xlsx
+++ b/geopoint_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icrucrob/Documents/GitHub/ODK_Geofencing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EFCF6E-DEE9-8543-BAA6-5C8483BA3CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC225541-7D83-BE4B-996D-3023669BE157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19180" yWindow="2460" windowWidth="33600" windowHeight="19720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8440" yWindow="1920" windowWidth="33600" windowHeight="19720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -817,7 +817,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/geopoint_map.xlsx
+++ b/geopoint_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icrucrob/Documents/GitHub/ODK_Geofencing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC225541-7D83-BE4B-996D-3023669BE157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2EE359-1DA4-9D4E-984D-43CE59D2638E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8440" yWindow="1920" windowWidth="33600" windowHeight="19720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2240" yWindow="1920" windowWidth="33600" windowHeight="19720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -74,12 +74,6 @@
     <t>key_note</t>
   </si>
   <si>
-    <t>round(selected-at(${geopoint},0),2)</t>
-  </si>
-  <si>
-    <t>round(selected-at(${geopoint},1),2)</t>
-  </si>
-  <si>
     <t>GPS : ${key}</t>
   </si>
   <si>
@@ -96,6 +90,12 @@
   </si>
   <si>
     <t>concat(${targetLong},'|',${targetLat})</t>
+  </si>
+  <si>
+    <t>round(selected-at(${geopoint},0),4)</t>
+  </si>
+  <si>
+    <t>round(selected-at(${geopoint},1),4)</t>
   </si>
 </sst>
 </file>
@@ -817,7 +817,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -879,7 +879,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -896,7 +896,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -913,7 +913,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -928,7 +928,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -942,12 +942,12 @@
         <v>8</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="9"/>
       <c r="E7" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -959,10 +959,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
